--- a/data/metadata/Informe-01-010054-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010054-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>personas-mano-obra-familiar-otros-de-35-a-54-anos</t>
   </si>
@@ -115,7 +115,7 @@
     <t>iaest-measure:personas-mano-obra-familiar-son-titulares-de-35-a-54-anos</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>iaest-measure:personas-que-son-mano-de-obra-familiar-y-conyuges</t>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
@@ -409,7 +406,7 @@
         <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>46</v>
@@ -483,7 +480,7 @@
         <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>48</v>
@@ -527,10 +524,10 @@
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010054-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010054-A-TC-TM-TP.xlsx
@@ -11,146 +11,146 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
-  <si>
-    <t>personas-mano-obra-familiar-otros-de-35-a-54-anos</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-conyuge-de-55-a-64-anos</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-son-titulares-35-anos</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-conyuge-de-mas-de-65-anos</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-otros-otra-relacion-con-35-anos</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-otros-de-mas-de-65-anos</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-son-titulares-de-35-a-54-anos</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>personas-que-son-mano-de-obra-familiar-y-conyuges</t>
-  </si>
-  <si>
-    <t>personas-que-son-mano-de-obra-familiar-distinta-a-las-anteriores-otros</t>
-  </si>
-  <si>
-    <t>codigo-de-la-provincia</t>
-  </si>
-  <si>
-    <t>comarca</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-conyuge-35-anos</t>
-  </si>
-  <si>
-    <t>codigo-del-municipio</t>
-  </si>
-  <si>
-    <t>personas-que-son-mano-de-obra-familiar</t>
-  </si>
-  <si>
-    <t>codigo-de-la-comarca</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-conyuge-de-35-a-54-anos</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-son-titulares-de-55-a-64-anos</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-otros-de-55-a-64-anos</t>
-  </si>
-  <si>
-    <t>personas-que-son-mano-de-obra-familiar-y-titulares-explotacion</t>
-  </si>
-  <si>
-    <t>personas-mano-obra-familiar-son-titulares-de-mas-de-65-anos</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+  <si>
+    <t>Personas que son mano de obra familiar y titulares explotación</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar cónyuge de 35 a 54 años</t>
+  </si>
+  <si>
+    <t>Código de la provincia</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar cónyuge &lt;35 años</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar cónyuge de más de 65 años</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar otros (otra relación) con &lt;35 años</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar otros de 55 a 64 años</t>
+  </si>
+  <si>
+    <t>Personas que son mano de obra familiar distinta a las anteriores (otros)</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar son titulares &lt;35 años</t>
+  </si>
+  <si>
+    <t>Comarca</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar otros de 35 a 54 años</t>
+  </si>
+  <si>
+    <t>Nombre del municipio</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar son titulares de 55 a 64 años</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar son titulares de más de 65 años</t>
+  </si>
+  <si>
+    <t>Personas que son mano de obra familiar y cónyuges</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar cónyuge de 55 a 64 años</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar otros de más de 65 años</t>
+  </si>
+  <si>
+    <t>Código de la comarca</t>
+  </si>
+  <si>
+    <t>Personas que son mano de obra familiar</t>
+  </si>
+  <si>
+    <t>Personas mano obra familiar son titulares de 35 a 54 años</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-que-son-mano-de-obra-familiar-y-titulares-explotacion</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-conyuge-de-35-a-54-anos</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-conyuge-35-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-conyuge-de-mas-de-65-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-otros-otra-relacion-con-35-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-otros-de-55-a-64-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-que-son-mano-de-obra-familiar-distinta-a-las-anteriores-otros</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-son-titulares-35-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:comarca</t>
   </si>
   <si>
     <t>iaest-measure:personas-mano-obra-familiar-otros-de-35-a-54-anos</t>
   </si>
   <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
     <t>iaest-measure:nombre-del-municipio</t>
   </si>
   <si>
+    <t>iaest-measure:personas-mano-obra-familiar-son-titulares-de-55-a-64-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-son-titulares-de-mas-de-65-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-que-son-mano-de-obra-familiar-y-conyuges</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-conyuge-de-55-a-64-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-otros-de-mas-de-65-anos</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-que-son-mano-de-obra-familiar</t>
+  </si>
+  <si>
+    <t>iaest-measure:personas-mano-obra-familiar-son-titulares-de-35-a-54-anos</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:personas-mano-obra-familiar-conyuge-de-55-a-64-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-son-titulares-35-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-conyuge-de-mas-de-65-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-otros-otra-relacion-con-35-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-otros-de-mas-de-65-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-son-titulares-de-35-a-54-anos</t>
-  </si>
-  <si>
     <t>iaest-measure:provincia</t>
   </si>
   <si>
-    <t>iaest-measure:personas-que-son-mano-de-obra-familiar-y-conyuges</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-que-son-mano-de-obra-familiar-distinta-a-las-anteriores-otros</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:comarca</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-conyuge-35-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-que-son-mano-de-obra-familiar</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-conyuge-de-35-a-54-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-son-titulares-de-55-a-64-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-otros-de-55-a-64-anos</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-que-son-mano-de-obra-familiar-y-titulares-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:personas-mano-obra-familiar-son-titulares-de-mas-de-65-anos</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
@@ -160,10 +160,13 @@
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -344,22 +347,22 @@
         <v>37</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>42</v>
@@ -379,10 +382,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>47</v>
@@ -415,25 +418,25 @@
         <v>46</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>46</v>
@@ -442,7 +445,7 @@
         <v>46</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>46</v>
@@ -453,10 +456,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>49</v>
@@ -480,34 +483,34 @@
         <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>48</v>
@@ -516,18 +519,15 @@
         <v>48</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
+      <c r="W5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010054-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010054-A-TC-TM-TP.xlsx
@@ -259,17 +259,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,15 +284,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
